--- a/Framework/Storage/NameDB.xlsx
+++ b/Framework/Storage/NameDB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">NameDB!$A$1:$C$833</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -5026,7 +5031,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5092,6 +5097,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5139,7 +5147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5174,7 +5182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5385,14 +5393,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17977,7 +17985,6 @@
       <c r="C864" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C833"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
